--- a/data/trans_orig/P76_P_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA924E7-D845-45E7-8715-0347F51DBABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C3D119-77E6-4602-B1DB-D635DAEC3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B76FC41-31C1-4124-9A88-C5392C41CC89}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48181065-7DF6-4790-B257-661D338B370C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="455">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -101,1279 +101,1303 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>1,76%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1788,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5E696D-8468-4F9E-A7D0-EE3A8C4D3240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11372C09-E4B2-4826-B442-101BA0D67348}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2595,13 +2619,13 @@
         <v>3871</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2610,13 +2634,13 @@
         <v>12908</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2655,13 @@
         <v>486073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>451</v>
@@ -2646,13 +2670,13 @@
         <v>492883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>905</v>
@@ -2661,18 +2685,18 @@
         <v>978956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2690,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2699,13 +2723,13 @@
         <v>986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2714,13 +2738,13 @@
         <v>986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2759,13 @@
         <v>91573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -2750,13 +2774,13 @@
         <v>110568</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>194</v>
@@ -2765,13 +2789,13 @@
         <v>202142</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2810,13 @@
         <v>52356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -2801,13 +2825,13 @@
         <v>67132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -2816,13 +2840,13 @@
         <v>119488</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2861,13 @@
         <v>107960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>96</v>
@@ -2852,13 +2876,13 @@
         <v>101431</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -2867,10 +2891,10 @@
         <v>209391</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>110</v>
@@ -2957,10 +2981,10 @@
         <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -2969,13 +2993,13 @@
         <v>17604</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3014,13 @@
         <v>9669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3005,7 +3029,7 @@
         <v>2952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>132</v>
@@ -3041,13 +3065,13 @@
         <v>320210</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" s="7">
         <v>311</v>
@@ -3056,13 +3080,13 @@
         <v>334207</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M27" s="7">
         <v>626</v>
@@ -3071,13 +3095,13 @@
         <v>654417</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3139,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3124,13 +3148,13 @@
         <v>3808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3169,13 @@
         <v>302762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>282</v>
@@ -3160,13 +3184,13 @@
         <v>299133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>568</v>
@@ -3175,13 +3199,13 @@
         <v>601896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3220,13 @@
         <v>52012</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -3211,13 +3235,13 @@
         <v>52570</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -3226,13 +3250,13 @@
         <v>104582</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3271,13 @@
         <v>170366</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -3262,13 +3286,13 @@
         <v>169358</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M31" s="7">
         <v>316</v>
@@ -3277,13 +3301,13 @@
         <v>339724</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3322,13 @@
         <v>92249</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -3313,13 +3337,13 @@
         <v>80893</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>154</v>
@@ -3328,13 +3352,13 @@
         <v>173142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3373,13 @@
         <v>23865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -3364,13 +3388,13 @@
         <v>18455</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M33" s="7">
         <v>40</v>
@@ -3379,13 +3403,13 @@
         <v>42320</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3424,13 @@
         <v>5135</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>138</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -3415,13 +3439,13 @@
         <v>15074</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -3430,13 +3454,13 @@
         <v>20209</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3475,13 @@
         <v>648488</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7">
         <v>592</v>
@@ -3466,13 +3490,13 @@
         <v>637192</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M35" s="7">
         <v>1199</v>
@@ -3481,18 +3505,18 @@
         <v>1285680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3510,7 +3534,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3519,13 +3543,13 @@
         <v>997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3534,13 +3558,13 @@
         <v>997</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3579,13 @@
         <v>116962</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>122</v>
@@ -3570,13 +3594,13 @@
         <v>124205</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>230</v>
@@ -3585,13 +3609,13 @@
         <v>241167</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3630,13 @@
         <v>21861</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>23</v>
@@ -3621,13 +3645,13 @@
         <v>25244</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>44</v>
@@ -3636,13 +3660,13 @@
         <v>47105</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3681,13 @@
         <v>49446</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H39" s="7">
         <v>44</v>
@@ -3672,13 +3696,13 @@
         <v>44396</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M39" s="7">
         <v>90</v>
@@ -3687,13 +3711,13 @@
         <v>93842</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3732,13 @@
         <v>14948</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -3723,13 +3747,13 @@
         <v>10835</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
@@ -3738,13 +3762,13 @@
         <v>25783</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3783,13 @@
         <v>2046</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3774,13 +3798,13 @@
         <v>2101</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3789,13 +3813,13 @@
         <v>4147</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3834,13 @@
         <v>1880</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3825,13 +3849,13 @@
         <v>4360</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3840,13 +3864,13 @@
         <v>6240</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3885,13 @@
         <v>207142</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" s="7">
         <v>206</v>
@@ -3876,13 +3900,13 @@
         <v>212137</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M43" s="7">
         <v>397</v>
@@ -3891,18 +3915,18 @@
         <v>419280</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3920,7 +3944,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3935,7 +3959,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3950,7 +3974,7 @@
         <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3989,13 @@
         <v>87493</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H45" s="7">
         <v>85</v>
@@ -3980,13 +4004,13 @@
         <v>88859</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M45" s="7">
         <v>169</v>
@@ -3995,13 +4019,13 @@
         <v>176352</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4040,13 @@
         <v>34919</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H46" s="7">
         <v>48</v>
@@ -4031,13 +4055,13 @@
         <v>49278</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M46" s="7">
         <v>82</v>
@@ -4046,13 +4070,13 @@
         <v>84197</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4091,13 @@
         <v>89246</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H47" s="7">
         <v>97</v>
@@ -4082,13 +4106,13 @@
         <v>101399</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M47" s="7">
         <v>183</v>
@@ -4097,13 +4121,13 @@
         <v>190645</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4142,13 @@
         <v>43021</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -4133,13 +4157,13 @@
         <v>25009</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M48" s="7">
         <v>64</v>
@@ -4148,13 +4172,13 @@
         <v>68030</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4193,13 @@
         <v>10154</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -4184,13 +4208,13 @@
         <v>4692</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -4199,13 +4223,13 @@
         <v>14846</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4244,13 @@
         <v>5069</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H50" s="7">
         <v>3</v>
@@ -4235,13 +4259,13 @@
         <v>3028</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="M50" s="7">
         <v>7</v>
@@ -4250,13 +4274,13 @@
         <v>8097</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4295,13 @@
         <v>269901</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" s="7">
         <v>261</v>
@@ -4286,13 +4310,13 @@
         <v>272265</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M51" s="7">
         <v>518</v>
@@ -4301,18 +4325,18 @@
         <v>542166</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4339,13 +4363,13 @@
         <v>1067</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4354,13 +4378,13 @@
         <v>1067</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4399,13 @@
         <v>120230</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H53" s="7">
         <v>142</v>
@@ -4390,13 +4414,13 @@
         <v>154740</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M53" s="7">
         <v>258</v>
@@ -4405,13 +4429,13 @@
         <v>274970</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>306</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4450,13 @@
         <v>77760</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="H54" s="7">
         <v>109</v>
@@ -4441,13 +4465,13 @@
         <v>116326</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M54" s="7">
         <v>184</v>
@@ -4456,13 +4480,13 @@
         <v>194086</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4501,13 @@
         <v>285722</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H55" s="7">
         <v>230</v>
@@ -4492,13 +4516,13 @@
         <v>246804</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M55" s="7">
         <v>493</v>
@@ -4507,13 +4531,13 @@
         <v>532526</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,10 +4555,10 @@
         <v>50</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H56" s="7">
         <v>105</v>
@@ -4543,13 +4567,13 @@
         <v>119656</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M56" s="7">
         <v>227</v>
@@ -4558,13 +4582,13 @@
         <v>253545</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4603,13 @@
         <v>24914</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="H57" s="7">
         <v>31</v>
@@ -4594,13 +4618,13 @@
         <v>34814</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M57" s="7">
         <v>53</v>
@@ -4609,13 +4633,13 @@
         <v>59729</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4654,13 @@
         <v>7015</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4645,13 +4669,13 @@
         <v>4716</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M58" s="7">
         <v>11</v>
@@ -4660,13 +4684,13 @@
         <v>11731</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4705,13 @@
         <v>649530</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" s="7">
         <v>622</v>
@@ -4696,13 +4720,13 @@
         <v>678124</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M59" s="7">
         <v>1227</v>
@@ -4711,18 +4735,18 @@
         <v>1327654</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4734,13 +4758,13 @@
         <v>987</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -4749,13 +4773,13 @@
         <v>1059</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -4764,13 +4788,13 @@
         <v>2046</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4809,13 @@
         <v>281369</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H61" s="7">
         <v>298</v>
@@ -4800,13 +4824,13 @@
         <v>322486</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M61" s="7">
         <v>554</v>
@@ -4815,13 +4839,13 @@
         <v>603855</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4860,13 @@
         <v>130966</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H62" s="7">
         <v>120</v>
@@ -4851,13 +4875,13 @@
         <v>129707</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M62" s="7">
         <v>237</v>
@@ -4866,13 +4890,13 @@
         <v>260673</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4911,13 @@
         <v>204235</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H63" s="7">
         <v>223</v>
@@ -4902,13 +4926,13 @@
         <v>238773</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="M63" s="7">
         <v>422</v>
@@ -4917,13 +4941,13 @@
         <v>443008</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4962,13 @@
         <v>97707</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H64" s="7">
         <v>71</v>
@@ -4953,13 +4977,13 @@
         <v>81075</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M64" s="7">
         <v>159</v>
@@ -4968,13 +4992,13 @@
         <v>178782</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5013,13 @@
         <v>39247</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H65" s="7">
         <v>24</v>
@@ -5004,13 +5028,13 @@
         <v>27336</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M65" s="7">
         <v>59</v>
@@ -5019,13 +5043,13 @@
         <v>66583</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5064,13 @@
         <v>7584</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>389</v>
+        <v>186</v>
       </c>
       <c r="H66" s="7">
         <v>7</v>
@@ -5055,13 +5079,13 @@
         <v>9082</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M66" s="7">
         <v>12</v>
@@ -5070,13 +5094,13 @@
         <v>16666</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5115,13 @@
         <v>762096</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" s="7">
         <v>744</v>
@@ -5106,13 +5130,13 @@
         <v>809518</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M67" s="7">
         <v>1445</v>
@@ -5121,13 +5145,13 @@
         <v>1571614</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5168,13 @@
         <v>4032</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="H68" s="7">
         <v>5</v>
@@ -5159,13 +5183,13 @@
         <v>5818</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="M68" s="7">
         <v>9</v>
@@ -5174,10 +5198,10 @@
         <v>9850</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>140</v>
@@ -5195,28 +5219,28 @@
         <v>1281539</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H69" s="7">
         <v>1308</v>
       </c>
       <c r="I69" s="7">
-        <v>1399516</v>
+        <v>1399517</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M69" s="7">
         <v>2513</v>
@@ -5225,13 +5249,13 @@
         <v>2681055</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>406</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5270,13 @@
         <v>404012</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H70" s="7">
         <v>440</v>
@@ -5261,13 +5285,13 @@
         <v>473341</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M70" s="7">
         <v>824</v>
@@ -5276,13 +5300,13 @@
         <v>877353</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,28 +5321,28 @@
         <v>1008281</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>415</v>
+        <v>219</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>254</v>
+        <v>422</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H71" s="7">
         <v>934</v>
       </c>
       <c r="I71" s="7">
-        <v>1002597</v>
+        <v>1002598</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M71" s="7">
         <v>1892</v>
@@ -5327,13 +5351,13 @@
         <v>2010878</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5372,13 @@
         <v>476262</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H72" s="7">
         <v>376</v>
@@ -5363,13 +5387,13 @@
         <v>414566</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M72" s="7">
         <v>804</v>
@@ -5378,13 +5402,13 @@
         <v>890828</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5423,13 @@
         <v>123923</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H73" s="7">
         <v>88</v>
@@ -5414,13 +5438,13 @@
         <v>97404</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M73" s="7">
         <v>200</v>
@@ -5429,13 +5453,13 @@
         <v>221328</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5474,13 @@
         <v>45389</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>70</v>
+        <v>448</v>
       </c>
       <c r="H74" s="7">
         <v>36</v>
@@ -5465,13 +5489,13 @@
         <v>43084</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M74" s="7">
         <v>75</v>
@@ -5480,13 +5504,13 @@
         <v>88473</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>135</v>
+        <v>452</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,28 +5525,28 @@
         <v>3343438</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H75" s="7">
         <v>3187</v>
       </c>
       <c r="I75" s="7">
-        <v>3436326</v>
+        <v>3436327</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M75" s="7">
         <v>6317</v>
@@ -5531,18 +5555,18 @@
         <v>6779765</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_P_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C3D119-77E6-4602-B1DB-D635DAEC3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F3BEBA-7C24-4834-BD06-6389E6DFF4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48181065-7DF6-4790-B257-661D338B370C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{399E1F49-0EC0-40EA-8E3A-52E9A90ABF67}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="458">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -101,1303 +101,1312 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,98%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
     <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1812,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11372C09-E4B2-4826-B442-101BA0D67348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD74A48-CB2E-4FB9-9EAF-EDB5B4E531AB}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2619,13 +2628,13 @@
         <v>3871</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2634,13 +2643,13 @@
         <v>12908</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2664,13 @@
         <v>486073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>451</v>
@@ -2670,13 +2679,13 @@
         <v>492883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>905</v>
@@ -2685,18 +2694,18 @@
         <v>978956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2714,7 +2723,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2723,13 +2732,13 @@
         <v>986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2738,13 +2747,13 @@
         <v>986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2768,13 @@
         <v>91573</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -2774,13 +2783,13 @@
         <v>110568</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>194</v>
@@ -2789,13 +2798,13 @@
         <v>202142</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2819,13 @@
         <v>52356</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -2825,13 +2834,13 @@
         <v>67132</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -2840,13 +2849,13 @@
         <v>119488</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2870,13 @@
         <v>107960</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>96</v>
@@ -2876,13 +2885,13 @@
         <v>101431</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -2891,10 +2900,10 @@
         <v>209391</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>110</v>
@@ -3029,13 +3038,13 @@
         <v>2952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -3044,13 +3053,13 @@
         <v>12621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3074,13 @@
         <v>320210</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7">
         <v>311</v>
@@ -3080,13 +3089,13 @@
         <v>334207</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7">
         <v>626</v>
@@ -3095,18 +3104,18 @@
         <v>654417</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3127,13 @@
         <v>2098</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3133,13 +3142,13 @@
         <v>1709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3148,13 +3157,13 @@
         <v>3808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3178,13 @@
         <v>302762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>282</v>
@@ -3184,13 +3193,13 @@
         <v>299133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>568</v>
@@ -3199,13 +3208,13 @@
         <v>601896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3229,13 @@
         <v>52012</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -3235,13 +3244,13 @@
         <v>52570</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -3250,13 +3259,13 @@
         <v>104582</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3280,13 @@
         <v>170366</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -3286,13 +3295,13 @@
         <v>169358</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>316</v>
@@ -3301,13 +3310,13 @@
         <v>339724</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3331,13 @@
         <v>92249</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -3337,13 +3346,13 @@
         <v>80893</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="7">
         <v>154</v>
@@ -3352,13 +3361,13 @@
         <v>173142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3382,13 @@
         <v>23865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -3388,13 +3397,13 @@
         <v>18455</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M33" s="7">
         <v>40</v>
@@ -3403,13 +3412,13 @@
         <v>42320</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3433,13 @@
         <v>5135</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -3439,13 +3448,13 @@
         <v>15074</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -3454,13 +3463,13 @@
         <v>20209</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3484,13 @@
         <v>648488</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7">
         <v>592</v>
@@ -3490,13 +3499,13 @@
         <v>637192</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="7">
         <v>1199</v>
@@ -3505,18 +3514,18 @@
         <v>1285680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3534,7 +3543,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3543,13 +3552,13 @@
         <v>997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3558,13 +3567,13 @@
         <v>997</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3588,13 @@
         <v>116962</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>122</v>
@@ -3594,13 +3603,13 @@
         <v>124205</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>230</v>
@@ -3609,13 +3618,13 @@
         <v>241167</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3639,13 @@
         <v>21861</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>23</v>
@@ -3645,13 +3654,13 @@
         <v>25244</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>44</v>
@@ -3660,13 +3669,13 @@
         <v>47105</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3690,13 @@
         <v>49446</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H39" s="7">
         <v>44</v>
@@ -3696,13 +3705,13 @@
         <v>44396</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M39" s="7">
         <v>90</v>
@@ -3711,13 +3720,13 @@
         <v>93842</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3741,13 @@
         <v>14948</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -3747,13 +3756,13 @@
         <v>10835</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
@@ -3762,13 +3771,13 @@
         <v>25783</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3792,13 @@
         <v>2046</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3798,13 +3807,13 @@
         <v>2101</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3813,13 +3822,13 @@
         <v>4147</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3843,13 @@
         <v>1880</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3849,13 +3858,13 @@
         <v>4360</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3864,13 +3873,13 @@
         <v>6240</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3894,13 @@
         <v>207142</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="7">
         <v>206</v>
@@ -3900,13 +3909,13 @@
         <v>212137</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M43" s="7">
         <v>397</v>
@@ -3915,18 +3924,18 @@
         <v>419280</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3944,7 +3953,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3959,7 +3968,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3974,7 +3983,7 @@
         <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3998,13 @@
         <v>87493</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H45" s="7">
         <v>85</v>
@@ -4004,13 +4013,13 @@
         <v>88859</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M45" s="7">
         <v>169</v>
@@ -4019,13 +4028,13 @@
         <v>176352</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4049,13 @@
         <v>34919</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H46" s="7">
         <v>48</v>
@@ -4055,13 +4064,13 @@
         <v>49278</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M46" s="7">
         <v>82</v>
@@ -4070,13 +4079,13 @@
         <v>84197</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4100,13 @@
         <v>89246</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H47" s="7">
         <v>97</v>
@@ -4106,13 +4115,13 @@
         <v>101399</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M47" s="7">
         <v>183</v>
@@ -4121,13 +4130,13 @@
         <v>190645</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4151,13 @@
         <v>43021</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -4157,13 +4166,13 @@
         <v>25009</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M48" s="7">
         <v>64</v>
@@ -4172,13 +4181,13 @@
         <v>68030</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4202,13 @@
         <v>10154</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -4208,13 +4217,13 @@
         <v>4692</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -4223,13 +4232,13 @@
         <v>14846</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4253,13 @@
         <v>5069</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H50" s="7">
         <v>3</v>
@@ -4259,13 +4268,13 @@
         <v>3028</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="L50" s="7" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="M50" s="7">
         <v>7</v>
@@ -4274,13 +4283,13 @@
         <v>8097</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4304,13 @@
         <v>269901</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H51" s="7">
         <v>261</v>
@@ -4310,13 +4319,13 @@
         <v>272265</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M51" s="7">
         <v>518</v>
@@ -4325,18 +4334,18 @@
         <v>542166</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4354,7 +4363,7 @@
         <v>22</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4363,13 +4372,13 @@
         <v>1067</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4378,13 +4387,13 @@
         <v>1067</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4408,13 @@
         <v>120230</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H53" s="7">
         <v>142</v>
@@ -4414,13 +4423,13 @@
         <v>154740</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M53" s="7">
         <v>258</v>
@@ -4429,13 +4438,13 @@
         <v>274970</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4459,13 @@
         <v>77760</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H54" s="7">
         <v>109</v>
@@ -4465,13 +4474,13 @@
         <v>116326</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M54" s="7">
         <v>184</v>
@@ -4480,13 +4489,13 @@
         <v>194086</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4510,13 @@
         <v>285722</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H55" s="7">
         <v>230</v>
@@ -4516,13 +4525,13 @@
         <v>246804</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M55" s="7">
         <v>493</v>
@@ -4531,13 +4540,13 @@
         <v>532526</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,10 +4564,10 @@
         <v>50</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H56" s="7">
         <v>105</v>
@@ -4567,13 +4576,13 @@
         <v>119656</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="M56" s="7">
         <v>227</v>
@@ -4582,13 +4591,13 @@
         <v>253545</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4612,13 @@
         <v>24914</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H57" s="7">
         <v>31</v>
@@ -4618,13 +4627,13 @@
         <v>34814</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M57" s="7">
         <v>53</v>
@@ -4633,13 +4642,13 @@
         <v>59729</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4663,13 @@
         <v>7015</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4669,13 +4678,13 @@
         <v>4716</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="M58" s="7">
         <v>11</v>
@@ -4684,13 +4693,13 @@
         <v>11731</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4714,13 @@
         <v>649530</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="7">
         <v>622</v>
@@ -4720,13 +4729,13 @@
         <v>678124</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M59" s="7">
         <v>1227</v>
@@ -4735,18 +4744,18 @@
         <v>1327654</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4758,13 +4767,13 @@
         <v>987</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -4773,13 +4782,13 @@
         <v>1059</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -4788,13 +4797,13 @@
         <v>2046</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4818,13 @@
         <v>281369</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H61" s="7">
         <v>298</v>
@@ -4824,13 +4833,13 @@
         <v>322486</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M61" s="7">
         <v>554</v>
@@ -4839,13 +4848,13 @@
         <v>603855</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4869,13 @@
         <v>130966</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H62" s="7">
         <v>120</v>
@@ -4875,13 +4884,13 @@
         <v>129707</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M62" s="7">
         <v>237</v>
@@ -4890,13 +4899,13 @@
         <v>260673</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4920,13 @@
         <v>204235</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H63" s="7">
         <v>223</v>
@@ -4926,13 +4935,13 @@
         <v>238773</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M63" s="7">
         <v>422</v>
@@ -4941,13 +4950,13 @@
         <v>443008</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>167</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4971,13 @@
         <v>97707</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H64" s="7">
         <v>71</v>
@@ -4977,13 +4986,13 @@
         <v>81075</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M64" s="7">
         <v>159</v>
@@ -4992,13 +5001,13 @@
         <v>178782</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>118</v>
+        <v>390</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5022,13 @@
         <v>39247</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H65" s="7">
         <v>24</v>
@@ -5028,13 +5037,13 @@
         <v>27336</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M65" s="7">
         <v>59</v>
@@ -5043,13 +5052,13 @@
         <v>66583</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5073,13 @@
         <v>7584</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="H66" s="7">
         <v>7</v>
@@ -5079,13 +5088,13 @@
         <v>9082</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>396</v>
+        <v>134</v>
       </c>
       <c r="M66" s="7">
         <v>12</v>
@@ -5094,13 +5103,13 @@
         <v>16666</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>399</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5124,13 @@
         <v>762096</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H67" s="7">
         <v>744</v>
@@ -5130,13 +5139,13 @@
         <v>809518</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M67" s="7">
         <v>1445</v>
@@ -5145,13 +5154,13 @@
         <v>1571614</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5177,13 @@
         <v>4032</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H68" s="7">
         <v>5</v>
@@ -5183,13 +5192,13 @@
         <v>5818</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>405</v>
+        <v>292</v>
       </c>
       <c r="M68" s="7">
         <v>9</v>
@@ -5198,13 +5207,13 @@
         <v>9850</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5228,13 @@
         <v>1281539</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H69" s="7">
         <v>1308</v>
@@ -5234,28 +5243,28 @@
         <v>1399517</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M69" s="7">
         <v>2513</v>
       </c>
       <c r="N69" s="7">
-        <v>2681055</v>
+        <v>2681056</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5279,13 @@
         <v>404012</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H70" s="7">
         <v>440</v>
@@ -5285,13 +5294,13 @@
         <v>473341</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M70" s="7">
         <v>824</v>
@@ -5300,13 +5309,13 @@
         <v>877353</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5330,13 @@
         <v>1008281</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H71" s="7">
         <v>934</v>
@@ -5336,28 +5345,28 @@
         <v>1002598</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M71" s="7">
         <v>1892</v>
       </c>
       <c r="N71" s="7">
-        <v>2010878</v>
+        <v>2010879</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5381,13 @@
         <v>476262</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H72" s="7">
         <v>376</v>
@@ -5387,13 +5396,13 @@
         <v>414566</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M72" s="7">
         <v>804</v>
@@ -5402,13 +5411,13 @@
         <v>890828</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5432,13 @@
         <v>123923</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H73" s="7">
         <v>88</v>
@@ -5438,13 +5447,13 @@
         <v>97404</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="M73" s="7">
         <v>200</v>
@@ -5453,13 +5462,13 @@
         <v>221328</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>72</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5483,13 @@
         <v>45389</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H74" s="7">
         <v>36</v>
@@ -5489,13 +5498,13 @@
         <v>43084</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M74" s="7">
         <v>75</v>
@@ -5504,13 +5513,13 @@
         <v>88473</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>453</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5534,13 @@
         <v>3343438</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H75" s="7">
         <v>3187</v>
@@ -5540,33 +5549,33 @@
         <v>3436327</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M75" s="7">
         <v>6317</v>
       </c>
       <c r="N75" s="7">
-        <v>6779765</v>
+        <v>6779766</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
